--- a/SOURCES.xlsx
+++ b/SOURCES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Coding\Projects\Global-Stock-Symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4923B33-2709-45ED-9B09-569D4BEFC09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C5373-E538-4DB8-801D-E1E6B76546D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DD702BE1-1C7A-4DBA-9976-8F9F8F075D9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Market</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>https://www.nasdaq.com/market-activity/stocks/screener</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>TSX</t>
+  </si>
+  <si>
+    <t>https://www.tsx.com/en/listings/current-market-statistics</t>
+  </si>
+  <si>
+    <t>TSX, TSXV</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>ASX</t>
+  </si>
+  <si>
+    <t>https://www.asx.com.au/markets/trade-our-cash-market/directory</t>
   </si>
 </sst>
 </file>
@@ -475,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040522E1-39DF-4D56-8AA0-BE71773B9079}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -574,6 +595,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{E11F0D1A-CBF4-41A2-9B2F-D2AD9333822F}"/>
@@ -581,8 +630,10 @@
     <hyperlink ref="E7" r:id="rId3" xr:uid="{45D7C416-AB11-41CB-BD99-DD6B060BFFC1}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{CE46A1AE-6D7A-4887-BD6E-93F53FF98CE6}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{5E8EA6C2-A6C1-456A-A0FC-C8A94F7ED30A}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{06A55757-9E17-4242-87AE-0D535907D179}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{DB1FBB33-186F-4D39-B152-14E1683C4859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>